--- a/.workspace/shop/shoplist.xlsx
+++ b/.workspace/shop/shoplist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="484" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shop head" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="279">
   <si>
     <t>#ignore rows that start with a '#'</t>
   </si>
@@ -58,70 +58,70 @@
   </si>
   <si>
     <t>#Building Materials</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
     <t>minecraft:stone:1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:stone:3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:stone:5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Building Materials</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>#sell (from player's perspective)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>#buy  (from player's perspective)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:sandstone:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:red_sandstone:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:snow</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:hardened_clay</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:stained_hardened_clay:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:stained_hardened_clay:1</t>
@@ -170,19 +170,19 @@
   </si>
   <si>
     <t>Dyed Block</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>#Dyed Block</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:wool:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:wool:1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:wool:2</t>
@@ -228,11 +228,11 @@
   </si>
   <si>
     <t>minecraft:concrete:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:concrete:1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:concrete:2</t>
@@ -278,15 +278,15 @@
   </si>
   <si>
     <t>#Dye</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:dye:5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:dye:6</t>
@@ -317,11 +317,11 @@
   </si>
   <si>
     <t>biomesoplenty:white_dye</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:dye:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:dye:1</t>
@@ -331,15 +331,15 @@
   </si>
   <si>
     <t>biomesoplenty:brown_dye</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>biomesoplenty:blue_dye</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:clay</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -356,7 +356,7 @@
       </rPr>
       <t>uy</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -373,7 +373,7 @@
       </rPr>
       <t>ceandfire:sapphire_gem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>ell</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -407,7 +407,7 @@
       </rPr>
       <t>Ammo</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,11 +424,11 @@
       </rPr>
       <t>uy</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>openmodularturrets:ammo_meta:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>openmodularturrets:ammo_meta:1</t>
@@ -457,7 +457,7 @@
       </rPr>
       <t>Exchangeable</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -474,7 +474,7 @@
       </rPr>
       <t>able</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -491,28 +491,7 @@
       </rPr>
       <t>able</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>op Tier Food</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Top Tier Food</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -529,7 +508,7 @@
       </rPr>
       <t>arvestcraft:southernstylebreakfastitem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -546,7 +525,7 @@
       </rPr>
       <t>arvestcraft:thankfuldinneritem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -563,7 +542,7 @@
       </rPr>
       <t>arvestcraft:koreandinneritem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -580,7 +559,7 @@
       </rPr>
       <t>arvestcraft:gourmetvenisonburgeritem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -597,7 +576,7 @@
       </rPr>
       <t>arvestcraft:minerstewitem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,7 +593,7 @@
       </rPr>
       <t>arvestcraft:cornedbeefbreakfastitem</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -631,7 +610,7 @@
       </rPr>
       <t>uy</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -648,7 +627,7 @@
       </rPr>
       <t>mmersiveengineering:stone_decoration:5</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -665,11 +644,11 @@
       </rPr>
       <t>uy</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>immersiveengineering:stone_decoration:7</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -686,7 +665,7 @@
       </rPr>
       <t>Crafting Materials</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -703,15 +682,15 @@
       </rPr>
       <t>ceandfire:fire_lily</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>iceandfire:frost_lily</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:log:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>minecraft:log:1</t>
@@ -737,7 +716,7 @@
       </rPr>
       <t>inecraft:log2:0</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -754,15 +733,15 @@
       </rPr>
       <t>inecraft:log2:1</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>abyssalcraft:dltlog</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>abyssalcraft:dltlog2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -779,7 +758,7 @@
       </rPr>
       <t>byssalcraft:dreadlog</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -796,7 +775,7 @@
       </rPr>
       <t>iomesoplenty:log_0:4</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -857,11 +836,11 @@
   </si>
   <si>
     <t>biomesoplenty:log_1:4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>biomesoplenty:log_2:4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>biomesoplenty:log_2:5</t>
@@ -874,7 +853,7 @@
   </si>
   <si>
     <t>biomesoplenty:log_3:4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>biomesoplenty:log_3:5</t>
@@ -887,7 +866,7 @@
   </si>
   <si>
     <t>biomesoplenty:log_4:4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>biomesoplenty:log_4:5</t>
@@ -907,24 +886,309 @@
       </rPr>
       <t>inecraft:glowstone_dust</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Mob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Loot</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#Modpack Ver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ion</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:elytra</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>byssalcraft:eldritchscale</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calinghealth:heartcontainer</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calinghealth:difficultychanger:0</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calinghealth:healingitem:0</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calinghealth:healingitem:1</t>
+    </r>
+  </si>
+  <si>
+    <t>akashictome:tome {"akashictome:data":{tconstruct:{id:"tconstruct:book",Count:1b,tag:{"akashictome:definedMod":"tconstruct",mantle:{book:{page:"materials.palladium"}}},Damage:0s},conarm:{id:"conarm:book",Count:1b,tag:{"akashictome:definedMod":"conarm"},Damage:0s},ftbquests:{id:"ftbquests:book",Count:1b,tag:{"akashictome:definedMod":"ftbquests"},Damage:0s},extrautils2:{id:"extrautils2:book",Count:1b,tag:{"akashictome:definedMod":"extrautils2"},Damage:0s},immersiveengineering:{id:"immersiveengineering:tool",Count:1b,tag:{"akashictome:definedMod":"immersiveengineering"},Damage:3s},opencomputers:{id:"opencomputers:tool",Count:1b,tag:{"akashictome:definedMod":"opencomputers"},Damage:4s},iceandfire:{id:"iceandfire:bestiary",Count:1b,tag:{Pages:[I;0],"akashictome:definedMod":"iceandfire"},Damage:0s},ebwizardry:{id:"ebwizardry:wizard_handbook",Count:1b,tag:{"akashictome:definedMod":"ebwizardry"},Damage:0s}}}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ell</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:diamond</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:0</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:pixie_house:5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceandfire:manuscript</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -939,9 +1203,694 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mob Loot</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+      <t>Tools</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tconstruct:throwball:0</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tconstruct:throwball:1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.99.6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>minecraft:fireworks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {Fireworks:{Flight:3b}}</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>minecraft:fireworks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {Fireworks:{Flight:1b}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>minecraft:fireworks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {Fireworks:{Flight:2b}}</t>
+    </r>
+  </si>
+  <si>
+    <t>ebwizardry:firebomb</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebwizardry:poison_bomb</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebwizardry:smoke_bomb</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebwizardry:spark_bomb</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>immersiveengineering:bullet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2 {bullet:"casull"}</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"armor_piercing"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"buckshot"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"he"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"silver"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"dragonsbreath"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>immersiveengineering:bullet:2 {bullet:"potion"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etterbuilderswands:wandunbreakable:12</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dye</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammo</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arvestcraft:meatfeastpizzaitem</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Bounty entries</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#content</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitWorth</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>stages[list]</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbt_data(string)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>embraced by "{}"</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>every entry from here on are treated as required game stages</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_coral_dim</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_dreadland</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_omothol</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_conquered</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc_end_dim</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty for generation with python script</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#&lt;modid&gt;:&lt;item_id&gt;:[meta] / entity:&lt;modid&gt;:&lt;entity_id&gt;</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>entity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>byssalcraft:lessershoggoth</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minecraft:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>creeper</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:minecraft:zombie</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:minecraft:skeleton</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:minecraft:wither</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:abyssalcraft:jzahar</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_dark_dim</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:abyssalcraft:shadowbeast</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:abyssalcraft:shadowcreature</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:abyssalcraft:shadowmonster</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:abyssalcraft:chagaroth</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:abyssalcraft:dragonboss</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:minecraft:ender_dragon</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:iceandfire:firedragon</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:iceandfire:icedragon</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity:minecraft:zombie_pigman</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:abyssalcraft:chagarothspawn</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntity:abyssalcraft:omotholghoul</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tconstruct:materials:50</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_omothol</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:emerald</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:sand</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>minecraft:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sand:1</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crops</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -958,21 +1907,27 @@
       </rPr>
       <t>ell</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#Modpack Ver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:wheat</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -984,13 +1939,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ion</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>minecraft:bone</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+      <t>ell</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>minecraft:carrot</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1005,98 +1964,145 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>inecraft:potato</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ell</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>minecraft:poisonous_potato</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arvestcraft:soybeanitem</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:pumpkin</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>minecraft:melon_block</t>
+  </si>
+  <si>
+    <t>minecraft:leather</t>
+  </si>
+  <si>
+    <t>minecraft:coal:1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Misc</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>abyssalcraft:charcoal</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>inecraft:rotten_flesh</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>minecraft:dye:15</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>minecraft:gunpowder</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shoggothflesh:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shoggothflesh:1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shoggothflesh:2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shoggothflesh:3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shoggothflesh:4</t>
-    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:netherrack</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>aether_legacy:aether_log:0</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>aether_legacy:aether_log:1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllseed</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1113,369 +2119,56 @@
       </rPr>
       <t>ell</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>construct:edible:10</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ell</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:shadowgem</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:essence:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:essence:1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:essence:2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:gatekeeperessence</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ell</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:eoa</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misc</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inecraft:elytra</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ell</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:eldritchscale</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>calinghealth:heartcontainer</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>calinghealth:difficultychanger:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>calinghealth:healingitem:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>calinghealth:healingitem:1</t>
-    </r>
-  </si>
-  <si>
-    <t>akashictome:tome {"akashictome:data":{tconstruct:{id:"tconstruct:book",Count:1b,tag:{"akashictome:definedMod":"tconstruct",mantle:{book:{page:"materials.palladium"}}},Damage:0s},conarm:{id:"conarm:book",Count:1b,tag:{"akashictome:definedMod":"conarm"},Damage:0s},ftbquests:{id:"ftbquests:book",Count:1b,tag:{"akashictome:definedMod":"ftbquests"},Damage:0s},extrautils2:{id:"extrautils2:book",Count:1b,tag:{"akashictome:definedMod":"extrautils2"},Damage:0s},immersiveengineering:{id:"immersiveengineering:tool",Count:1b,tag:{"akashictome:definedMod":"immersiveengineering"},Damage:3s},opencomputers:{id:"opencomputers:tool",Count:1b,tag:{"akashictome:definedMod":"opencomputers"},Damage:4s},iceandfire:{id:"iceandfire:bestiary",Count:1b,tag:{Pages:[I;0],"akashictome:definedMod":"iceandfire"},Damage:0s},ebwizardry:{id:"ebwizardry:wizard_handbook",Count:1b,tag:{"akashictome:definedMod":"ebwizardry"},Damage:0s}}}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Misc</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isc</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ell</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inecraft:diamond</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ell </t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllfruit</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllveggie</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:cropRice</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllgrain</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:cropCoffee</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllspice</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore:listAllherb</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arvestcraft:creepercookieitem</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1492,841 +2185,51 @@
       </rPr>
       <t>uy</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:pixie_house:5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceandfire:manuscript</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ell</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>minecraft:dragon_egg</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tools</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tconstruct:throwball:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tconstruct:throwball:1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.99.6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>minecraft:fireworks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {Fireworks:{Flight:3b}}</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>minecraft:fireworks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {Fireworks:{Flight:1b}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>minecraft:fireworks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {Fireworks:{Flight:2b}}</t>
-    </r>
-  </si>
-  <si>
-    <t>ebwizardry:firebomb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebwizardry:poison_bomb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebwizardry:smoke_bomb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebwizardry:spark_bomb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>immersiveengineering:bullet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2 {bullet:"casull"}</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"armor_piercing"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"buckshot"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"he"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"silver"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"dragonsbreath"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>immersiveengineering:bullet:2 {bullet:"potion"}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etterbuilderswands:wandunbreakable:12</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dye</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ammo</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceandfire:myrmex_jungle_resin:0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>iceandfire:myrmex_desert_resin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:0</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arvestcraft:meatfeastpizzaitem</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Bounty entries</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#content</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitWorth</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>stages[list]</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbt_data(string)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>embraced by "{}"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>every entry from here on are treated as required game stages</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_coral_dim</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_dreadland</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_omothol</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_conquered</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>mc_end_dim</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty for generation with python script</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#&lt;modid&gt;:&lt;item_id&gt;:[meta] / entity:&lt;modid&gt;:&lt;entity_id&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>entity:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>byssalcraft:lessershoggoth</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entity:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>minecraft:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>creeper</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:minecraft:zombie</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:minecraft:skeleton</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:minecraft:wither</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:abyssalcraft:jzahar</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_dark_dim</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:abyssalcraft:shadowbeast</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:abyssalcraft:shadowcreature</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:abyssalcraft:shadowmonster</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:abyssalcraft:chagaroth</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:abyssalcraft:dragonboss</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:minecraft:ender_dragon</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:iceandfire:firedragon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:iceandfire:icedragon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity:minecraft:zombie_pigman</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:abyssalcraft:chagarothspawn</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntity:abyssalcraft:omotholghoul</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tconstruct:materials:50</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_omothol</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inecraft:emerald</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>buy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inecraft:sand</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uy</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>minecraft:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sand:1</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2498,33 +2401,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2533,25 +2466,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2560,47 +2475,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2886,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2990,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3006,30 +2930,28 @@
       <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>185</v>
-      </c>
+      <c r="C11" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3">
         <f ca="1">TODAY()</f>
-        <v>43815</v>
+        <v>43819</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3039,16 +2961,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="9" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -3087,10 +3009,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="34" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C5" s="9">
         <v>250</v>
@@ -3100,8 +3022,18 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24"/>
@@ -3160,10 +3092,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -3174,10 +3106,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C15" s="9">
         <v>1.25</v>
@@ -3258,10 +3190,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9">
         <v>10</v>
@@ -3272,10 +3204,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="9">
         <v>30</v>
@@ -3286,10 +3218,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="9">
         <v>7.5</v>
@@ -3300,10 +3232,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="9">
         <v>7.5</v>
@@ -3314,10 +3246,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9">
         <v>7.5</v>
@@ -3328,10 +3260,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="9">
         <v>7.5</v>
@@ -3342,10 +3274,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="9">
         <v>7.5</v>
@@ -3356,10 +3288,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9">
         <v>7.5</v>
@@ -3370,10 +3302,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="9">
         <v>7.5</v>
@@ -3384,10 +3316,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="9">
         <v>7.5</v>
@@ -3398,10 +3330,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="9">
         <v>7.5</v>
@@ -3412,10 +3344,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="9">
         <v>7.5</v>
@@ -3426,10 +3358,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9">
         <v>7.5</v>
@@ -3440,10 +3372,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="9">
         <v>7.5</v>
@@ -3454,10 +3386,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="9">
         <v>7.5</v>
@@ -3468,10 +3400,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9">
         <v>7.5</v>
@@ -3482,10 +3414,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="9">
         <v>7.5</v>
@@ -3496,10 +3428,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="9">
         <v>7.5</v>
@@ -3510,10 +3442,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="9">
         <v>7.5</v>
@@ -3524,10 +3456,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" s="9">
         <v>7.5</v>
@@ -3538,10 +3470,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="9">
         <v>7.5</v>
@@ -3552,10 +3484,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="9">
         <v>7.5</v>
@@ -3566,10 +3498,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" s="9">
         <v>7.5</v>
@@ -3580,10 +3512,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="9">
         <v>7.5</v>
@@ -3594,10 +3526,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="9">
         <v>7.5</v>
@@ -3608,10 +3540,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="9">
         <v>7.5</v>
@@ -3622,10 +3554,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="9">
         <v>7.5</v>
@@ -3636,10 +3568,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="9">
         <v>7.5</v>
@@ -3650,10 +3582,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" s="9">
         <v>7.5</v>
@@ -3663,12 +3595,32 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="23"/>
@@ -3696,10 +3648,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C60" s="15">
         <v>200</v>
@@ -3710,10 +3662,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C61" s="15">
         <v>200</v>
@@ -3724,10 +3676,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C62" s="15">
         <v>200</v>
@@ -3738,10 +3690,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C63" s="15">
         <v>200</v>
@@ -3752,10 +3704,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C64" s="15">
         <v>200</v>
@@ -3766,10 +3718,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="15" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C65" s="15">
         <v>200</v>
@@ -4830,10 +4782,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="18" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C183" s="9">
         <v>2</v>
@@ -4844,10 +4796,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="18" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C184" s="9">
         <v>30</v>
@@ -4858,10 +4810,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C185" s="9">
         <v>75</v>
@@ -4872,10 +4824,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C186" s="9">
         <v>75</v>
@@ -4886,10 +4838,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C187" s="9">
         <v>75</v>
@@ -4900,10 +4852,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C188" s="9">
         <v>30</v>
@@ -4914,10 +4866,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C189" s="9">
         <v>30</v>
@@ -4928,10 +4880,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C190" s="9">
         <v>30</v>
@@ -4942,10 +4894,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C191" s="9">
         <v>30</v>
@@ -4956,10 +4908,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C192" s="9">
         <v>25</v>
@@ -4970,10 +4922,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C193" s="9">
         <v>27</v>
@@ -4984,10 +4936,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C194" s="9">
         <v>27</v>
@@ -4998,10 +4950,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C195" s="9">
         <v>150</v>
@@ -5012,10 +4964,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C196" s="9">
         <v>30</v>
@@ -5026,10 +4978,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C197" s="9">
         <v>30</v>
@@ -5040,10 +4992,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C198" s="9">
         <v>25</v>
@@ -5058,15 +5010,15 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C201" s="9">
         <v>30000</v>
@@ -5077,10 +5029,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C202" s="9">
         <v>30000</v>
@@ -5091,10 +5043,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C203" s="9">
         <v>60</v>
@@ -5105,10 +5057,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C204" s="9">
         <v>80000</v>
@@ -5119,10 +5071,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C205" s="9">
         <v>20000</v>
@@ -5133,10 +5085,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C206" s="9">
         <v>50000</v>
@@ -5147,10 +5099,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C207" s="9">
         <v>250</v>
@@ -5161,10 +5113,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C208" s="9">
         <v>750</v>
@@ -5175,10 +5127,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="34" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C209" s="9">
         <v>100</v>
@@ -5189,10 +5141,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C210" s="9">
         <v>300</v>
@@ -5203,10 +5155,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C211" s="9">
         <v>1000000</v>
@@ -5217,15 +5169,15 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="18" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="18" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C214" s="9">
         <v>32768</v>
@@ -5238,7 +5190,7 @@
       <c r="B217" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5248,16 +5200,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -5296,10 +5248,10 @@
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
       <c r="A4" s="33" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C4" s="9">
         <v>250</v>
@@ -5309,8 +5261,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="9">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1">
       <c r="A6" s="2"/>
@@ -5321,424 +5283,384 @@
       <c r="B7" s="25"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>110</v>
+      <c r="A9" s="37" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="9">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="B34" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="1">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="9">
-        <v>5</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="9">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="D25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="9">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="9">
-        <v>15</v>
-      </c>
-      <c r="D29" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="9">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="9">
-        <v>15</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="9">
-        <v>3750</v>
-      </c>
-      <c r="D33" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="9">
-        <v>375</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>178</v>
+      <c r="B35" s="40" t="s">
+        <v>264</v>
       </c>
       <c r="C35" s="9">
-        <v>75</v>
+        <v>0.2</v>
       </c>
       <c r="D35" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="1">
-        <v>15</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="1">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="1">
-        <v>25</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="11"/>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5763,54 +5685,54 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -5828,7 +5750,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="26" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -5846,7 +5768,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -5864,7 +5786,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -5882,7 +5804,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -5900,7 +5822,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -5918,7 +5840,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -5936,7 +5858,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E12" t="e">
         <f t="shared" si="0"/>
@@ -5945,7 +5867,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="29" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -5963,7 +5885,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="29" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5979,12 +5901,12 @@
         <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="29" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -6000,12 +5922,12 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="29" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6021,12 +5943,12 @@
         <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="29" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6042,12 +5964,12 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="29" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6063,12 +5985,12 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="29" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6084,12 +6006,12 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6105,12 +6027,12 @@
         <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="29" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -6126,12 +6048,12 @@
         <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="29" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6147,7 +6069,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6156,7 +6078,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="28" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E25" t="e">
         <f t="shared" si="0"/>
@@ -6165,7 +6087,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="28" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6183,7 +6105,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="29" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -6195,13 +6117,13 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <f>INT(MIN(MAX(100000/(D27*AVERAGE(B27:C27)), 1), 300))</f>
+        <f t="shared" ref="E27:E34" si="1">INT(MIN(MAX(100000/(D27*AVERAGE(B27:C27)), 1), 300))</f>
         <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -6213,13 +6135,13 @@
         <v>40</v>
       </c>
       <c r="E28">
-        <f>INT(MIN(MAX(100000/(D28*AVERAGE(B28:C28)), 1), 300))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="29" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -6231,13 +6153,13 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>INT(MIN(MAX(100000/(D29*AVERAGE(B29:C29)), 1), 300))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6249,16 +6171,16 @@
         <v>2500</v>
       </c>
       <c r="E30">
-        <f>INT(MIN(MAX(100000/(D30*AVERAGE(B30:C30)), 1), 300))</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="30" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -6270,13 +6192,13 @@
         <v>40</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E34" si="1">INT(MIN(MAX(100000/(D31*AVERAGE(B31:C31)), 1), 300))</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="30" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E32" t="e">
         <f t="shared" si="1"/>
@@ -6285,7 +6207,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="31" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6303,7 +6225,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6320,7 +6242,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/.workspace/shop/shoplist.xlsx
+++ b/.workspace/shop/shoplist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="289">
   <si>
     <t>#ignore rows that start with a '#'</t>
   </si>
@@ -1022,10 +1022,6 @@
     </r>
   </si>
   <si>
-    <t>akashictome:tome {"akashictome:data":{tconstruct:{id:"tconstruct:book",Count:1b,tag:{"akashictome:definedMod":"tconstruct",mantle:{book:{page:"materials.palladium"}}},Damage:0s},conarm:{id:"conarm:book",Count:1b,tag:{"akashictome:definedMod":"conarm"},Damage:0s},ftbquests:{id:"ftbquests:book",Count:1b,tag:{"akashictome:definedMod":"ftbquests"},Damage:0s},extrautils2:{id:"extrautils2:book",Count:1b,tag:{"akashictome:definedMod":"extrautils2"},Damage:0s},immersiveengineering:{id:"immersiveengineering:tool",Count:1b,tag:{"akashictome:definedMod":"immersiveengineering"},Damage:3s},opencomputers:{id:"opencomputers:tool",Count:1b,tag:{"akashictome:definedMod":"opencomputers"},Damage:4s},iceandfire:{id:"iceandfire:bestiary",Count:1b,tag:{Pages:[I;0],"akashictome:definedMod":"iceandfire"},Damage:0s},ebwizardry:{id:"ebwizardry:wizard_handbook",Count:1b,tag:{"akashictome:definedMod":"ebwizardry"},Damage:0s}}}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>s</t>
     </r>
@@ -1254,10 +1250,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>v1.99.6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>minecraft:fireworks</t>
     </r>
@@ -1398,14 +1390,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>Dye</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ammo</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>h</t>
     </r>
@@ -2184,6 +2168,178 @@
         <scheme val="minor"/>
       </rPr>
       <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ustic:slate</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ustic:log:0</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ustic:log:1</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0.6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dye &amp; Ammo</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logs</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logs</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>akashictome:tome {"akashictome:data":{tconstruct:{id:"tconstruct:book",Count:1b,tag:{"akashictome:definedMod":"tconstruct"},Damage:0s},rustic:{id:"rustic:book",Count:1b,tag:{"akashictome:definedMod":"rustic"},Damage:0s},mysticalworld:{id:"patchouli:guide_book",Count:1b,tag:{"akashictome:definedMod":"mysticalworld","patchouli:book":"mysticalworld:world_guide"},Damage:0s},conarm:{id:"conarm:book",Count:1b,tag:{"akashictome:definedMod":"conarm"},Damage:0s},extrautils2:{id:"extrautils2:book",Count:1b,tag:{"akashictome:definedMod":"extrautils2"},Damage:0s},ftbquests:{id:"ftbquests:book",Count:1b,tag:{"akashictome:definedMod":"ftbquests"},Damage:0s},immersiveengineering:{id:"immersiveengineering:tool",Count:1b,tag:{"akashictome:definedMod":"immersiveengineering"},Damage:3s},roots:{id:"patchouli:guide_book",Count:1b,tag:{"akashictome:definedMod":"roots","patchouli:book":"roots:roots_guide"},Damage:0s},cookingforblockheads:{id:"cookingforblockheads:recipe_book",Count:1b,tag:{"akashictome:definedMod":"cookingforblockheads"},Damage:1s},iceandfire:{id:"iceandfire:bestiary",Count:1b,tag:{"akashictome:definedMod":"iceandfire"},Damage:0s},openblocks:{id:"openblocks:info_book",Count:1b,tag:{"akashictome:definedMod":"openblocks"},Damage:0s},ebwizardry:{id:"ebwizardry:wizard_handbook",Count:1b,tag:{"akashictome:definedMod":"ebwizardry"},Damage:0s}}}</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:dirt</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:cobble_stone</t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -2405,7 +2561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2430,28 +2586,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2460,16 +2616,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2478,35 +2656,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -2515,16 +2680,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2810,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2820,7 +2982,8 @@
     <col min="2" max="2" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="7"/>
     <col min="7" max="7" width="17.77734375" style="7" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
@@ -2914,10 +3077,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>151</v>
@@ -2930,11 +3093,11 @@
       <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>245</v>
+      <c r="C11" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -2943,11 +3106,11 @@
         <v>150</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C13" s="3">
         <f ca="1">TODAY()</f>
-        <v>43819</v>
+        <v>43836</v>
       </c>
     </row>
   </sheetData>
@@ -2959,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3008,11 +3171,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>236</v>
+      <c r="A5" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C5" s="9">
         <v>250</v>
@@ -3022,11 +3185,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>277</v>
+      <c r="A6" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>273</v>
       </c>
       <c r="C6" s="9">
         <v>50</v>
@@ -3036,12 +3199,32 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
@@ -3091,11 +3274,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>241</v>
+      <c r="A14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -3105,11 +3288,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>243</v>
+      <c r="A15" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>239</v>
       </c>
       <c r="C15" s="9">
         <v>1.25</v>
@@ -3217,599 +3400,631 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="9">
-        <v>7.5</v>
+      <c r="A23" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-    </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="A26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="14">
+        <v>200</v>
+      </c>
+      <c r="D26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="A27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="14">
+        <v>200</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="A28" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="14">
+        <v>200</v>
+      </c>
+      <c r="D28" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="A29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="14">
+        <v>200</v>
+      </c>
+      <c r="D29" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="A30" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="14">
+        <v>200</v>
+      </c>
+      <c r="D30" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="A31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="14">
+        <v>200</v>
+      </c>
+      <c r="D31" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D44" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="23"/>
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="23"/>
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="23"/>
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="15">
-        <v>200</v>
-      </c>
-      <c r="D60" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="15">
-        <v>200</v>
-      </c>
-      <c r="D61" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="15">
-        <v>200</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="15">
-        <v>200</v>
-      </c>
-      <c r="D63" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="15">
-        <v>200</v>
-      </c>
-      <c r="D64" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="15">
-        <v>200</v>
-      </c>
-      <c r="D65" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="34"/>
-      <c r="B68" s="23"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="23"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="23"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="23"/>
+      <c r="A72" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="23"/>
+      <c r="A73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="9">
+        <v>6</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="23"/>
+      <c r="A74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="9">
+        <v>6</v>
+      </c>
+      <c r="D74" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="23"/>
+      <c r="A75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="9">
+        <v>6</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="9">
+        <v>6</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="9">
+        <v>6</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="9">
+        <v>6</v>
+      </c>
+      <c r="D78" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="9">
+        <v>6</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="9" t="s">
-        <v>44</v>
+      <c r="A80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="9">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="9">
+        <v>6</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="9">
+        <v>6</v>
+      </c>
+      <c r="D82" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="9">
+        <v>6</v>
+      </c>
+      <c r="D83" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="9">
+        <v>6</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="9">
+        <v>6</v>
+      </c>
+      <c r="D85" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="9">
+        <v>6</v>
+      </c>
+      <c r="D86" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="9">
+        <v>6</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="9">
+        <v>6</v>
+      </c>
+      <c r="D88" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="9">
+        <v>6</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="9">
+        <v>6</v>
+      </c>
+      <c r="D91" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="9">
+        <v>6</v>
+      </c>
+      <c r="D92" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="9">
+        <v>6</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="9">
+        <v>6</v>
+      </c>
+      <c r="D94" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="9">
+        <v>6</v>
+      </c>
+      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="9">
+        <v>6</v>
+      </c>
+      <c r="D96" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="9">
+        <v>6</v>
+      </c>
+      <c r="D97" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="9">
+        <v>6</v>
+      </c>
+      <c r="D98" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="9">
+        <v>6</v>
+      </c>
+      <c r="D99" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="9">
+        <v>6</v>
+      </c>
+      <c r="D100" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="9">
+        <v>6</v>
+      </c>
+      <c r="D101" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="9">
+        <v>6</v>
+      </c>
+      <c r="D102" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="9">
+        <v>6</v>
+      </c>
+      <c r="D103" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="9">
+        <v>6</v>
+      </c>
+      <c r="D104" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="9">
+        <v>6</v>
+      </c>
+      <c r="D105" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C107" s="9">
         <v>6</v>
@@ -3823,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C108" s="9">
         <v>6</v>
@@ -3834,10 +4049,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C109" s="9">
         <v>6</v>
@@ -3851,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C110" s="9">
         <v>6</v>
@@ -3862,10 +4077,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C111" s="9">
         <v>6</v>
@@ -3879,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C112" s="9">
         <v>6</v>
@@ -3890,10 +4105,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C113" s="9">
         <v>6</v>
@@ -3907,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C114" s="9">
         <v>6</v>
@@ -3918,10 +4133,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C115" s="9">
         <v>6</v>
@@ -3935,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C116" s="9">
         <v>6</v>
@@ -3946,10 +4161,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C117" s="9">
         <v>6</v>
@@ -3963,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C118" s="9">
         <v>6</v>
@@ -3974,10 +4189,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C119" s="9">
         <v>6</v>
@@ -3991,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C120" s="9">
         <v>6</v>
@@ -4002,10 +4217,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C121" s="9">
         <v>6</v>
@@ -4019,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C122" s="9">
         <v>6</v>
@@ -4028,697 +4243,707 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C124" s="9">
-        <v>6</v>
-      </c>
-      <c r="D124" s="9">
-        <v>2</v>
-      </c>
-    </row>
     <row r="125" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C125" s="9">
-        <v>6</v>
-      </c>
-      <c r="D125" s="9">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C126" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D126" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C127" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C128" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D128" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C129" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D129" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C130" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D130" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C131" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D131" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C132" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D132" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C133" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D133" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C134" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D134" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C135" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D135" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C136" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D136" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C137" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D137" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C138" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D138" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C139" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D139" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="9">
+        <v>1</v>
+      </c>
+      <c r="D140" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C141" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C142" s="9">
-        <v>6</v>
-      </c>
-      <c r="D142" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C143" s="9">
-        <v>6</v>
-      </c>
-      <c r="D143" s="9">
-        <v>2</v>
+      <c r="A143" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>64</v>
+      <c r="A144" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C144" s="9">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="D144" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>65</v>
+      <c r="A145" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C145" s="9">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="D145" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>66</v>
+      <c r="A146" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C146" s="9">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="D146" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>67</v>
+      <c r="A147" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C147" s="9">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="D147" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>68</v>
+      <c r="A148" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C148" s="9">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D148" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>69</v>
+      <c r="A149" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C149" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D149" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>70</v>
+      <c r="A150" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="C150" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D150" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>71</v>
+      <c r="A151" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="C151" s="9">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D151" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>72</v>
+      <c r="A152" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="C152" s="9">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D152" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>73</v>
+      <c r="A153" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="C153" s="9">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D153" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>74</v>
+      <c r="A154" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="C154" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D154" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>75</v>
+      <c r="A155" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="C155" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D155" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>76</v>
+      <c r="A156" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="C156" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D156" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="9">
+        <v>30</v>
+      </c>
+      <c r="D157" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158" s="9">
+        <v>25</v>
+      </c>
+      <c r="D158" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="9" t="s">
-        <v>77</v>
+      <c r="A159" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="9">
+        <v>27</v>
+      </c>
+      <c r="D159" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>90</v>
+      <c r="A160" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="C160" s="9">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D160" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>91</v>
+      <c r="A161" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="C161" s="9">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D161" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>92</v>
+      <c r="A162" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="C162" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D162" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>93</v>
+      <c r="A163" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="C163" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D163" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>94</v>
+      <c r="A164" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="C164" s="9">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D164" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C165" s="9">
-        <v>1</v>
-      </c>
-      <c r="D165" s="9">
-        <v>3</v>
-      </c>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C166" s="9">
-        <v>1</v>
-      </c>
-      <c r="D166" s="9">
-        <v>3</v>
-      </c>
+      <c r="A166" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B166" s="18"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>81</v>
+      <c r="A167" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C167" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D167" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>82</v>
+      <c r="A168" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="C168" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D168" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>83</v>
+      <c r="A169" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C169" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D169" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>84</v>
+      <c r="A170" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="C170" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D170" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>85</v>
+      <c r="A171" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C171" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D171" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>86</v>
+      <c r="A172" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="C172" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D172" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>87</v>
+      <c r="A173" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C173" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D173" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>88</v>
+      <c r="A174" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="C174" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D174" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>89</v>
+      <c r="A175" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="C175" s="9">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D175" s="9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D176" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="13" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D177" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C178" s="9">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="D178" s="9">
         <v>4</v>
@@ -4726,13 +4951,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C179" s="9">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="D179" s="9">
         <v>4</v>
@@ -4740,13 +4965,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C180" s="9">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="D180" s="9">
         <v>4</v>
@@ -4754,13 +4979,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C181" s="9">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="D181" s="9">
         <v>4</v>
@@ -4768,257 +4993,257 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C182" s="9">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="D182" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>172</v>
+      <c r="A183" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C183" s="9">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="D183" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>173</v>
+      <c r="A184" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C184" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D184" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>177</v>
+      <c r="A185" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="C185" s="9">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="D185" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>178</v>
+      <c r="A186" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="C186" s="9">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="D186" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>176</v>
+      <c r="A187" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C187" s="9">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="D187" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>179</v>
+      <c r="A188" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C188" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D188" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>180</v>
+      <c r="A189" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C189" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D189" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>181</v>
+      <c r="A190" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C190" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D190" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>182</v>
+      <c r="A191" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C191" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D191" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>183</v>
+      <c r="A192" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="C192" s="9">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="D192" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>184</v>
+      <c r="A193" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="C193" s="9">
-        <v>27</v>
+        <v>7.5</v>
       </c>
       <c r="D193" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>185</v>
+      <c r="A194" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B194" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="C194" s="9">
-        <v>27</v>
+        <v>7.5</v>
       </c>
       <c r="D194" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>186</v>
+      <c r="A195" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B195" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="C195" s="9">
-        <v>150</v>
+        <v>7.5</v>
       </c>
       <c r="D195" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>187</v>
+      <c r="A196" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B196" s="42" t="s">
+        <v>278</v>
       </c>
       <c r="C196" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D196" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>188</v>
+      <c r="A197" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>279</v>
       </c>
       <c r="C197" s="9">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D197" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C198" s="9">
-        <v>25</v>
-      </c>
-      <c r="D198" s="9">
-        <v>4</v>
-      </c>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
+      <c r="A199" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="13" t="s">
-        <v>119</v>
+      <c r="A200" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C200" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D200" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="34" t="s">
-        <v>238</v>
+      <c r="A201" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C201" s="9">
         <v>30000</v>
@@ -5028,166 +5253,152 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="34" t="s">
-        <v>238</v>
+      <c r="A202" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C202" s="9">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="D202" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>149</v>
+      <c r="A203" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C203" s="9">
-        <v>60</v>
-      </c>
-      <c r="D203" s="9">
+        <v>80000</v>
+      </c>
+      <c r="D203" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>152</v>
+      <c r="A204" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C204" s="9">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="D204" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>154</v>
+      <c r="A205" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="C205" s="9">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D205" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>155</v>
+      <c r="A206" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="C206" s="9">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="D206" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>156</v>
+      <c r="A207" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="C207" s="9">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D207" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>157</v>
+      <c r="A208" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" s="43" t="s">
+        <v>284</v>
       </c>
       <c r="C208" s="9">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D208" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="34" t="s">
-        <v>239</v>
+      <c r="A209" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C209" s="9">
-        <v>100</v>
-      </c>
-      <c r="D209" s="10">
+        <v>300</v>
+      </c>
+      <c r="D209" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>168</v>
+      <c r="A210" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="C210" s="9">
-        <v>300</v>
+        <v>1000000</v>
       </c>
       <c r="D210" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B211" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C211" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D211" s="9">
+    <row r="212" spans="1:4">
+      <c r="A212" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" s="9">
+        <v>32768</v>
+      </c>
+      <c r="D213" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B214" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C214" s="9">
-        <v>32768</v>
-      </c>
-      <c r="D214" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="B217" s="19"/>
+    <row r="216" spans="1:4">
+      <c r="B216" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -5200,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5247,11 +5458,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>236</v>
+      <c r="A4" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C4" s="9">
         <v>250</v>
@@ -5261,11 +5472,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
-      <c r="A5" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>277</v>
+      <c r="A5" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>273</v>
       </c>
       <c r="C5" s="9">
         <v>50</v>
@@ -5275,24 +5486,44 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="37" t="s">
-        <v>246</v>
+      <c r="A9" s="35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>248</v>
+      <c r="A10" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -5302,39 +5533,39 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>254</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -5344,11 +5575,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>255</v>
+      <c r="A14" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5358,11 +5589,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>267</v>
+      <c r="A15" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>263</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5372,11 +5603,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>257</v>
+      <c r="A16" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -5386,11 +5617,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>258</v>
+      <c r="A17" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="C17" s="1">
         <v>13.5</v>
@@ -5400,67 +5631,67 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>269</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -5470,11 +5701,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>274</v>
+      <c r="A23" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>270</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -5484,11 +5715,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>275</v>
+      <c r="A24" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -5504,19 +5735,19 @@
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="40" t="s">
-        <v>261</v>
+      <c r="A26" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>259</v>
+      <c r="A27" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="C27" s="9">
         <v>6</v>
@@ -5526,11 +5757,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>256</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>260</v>
       </c>
       <c r="C28" s="9">
         <v>5</v>
@@ -5540,8 +5771,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38" t="s">
-        <v>256</v>
+      <c r="A29" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>13</v>
@@ -5554,8 +5785,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38" t="s">
-        <v>256</v>
+      <c r="A30" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>15</v>
@@ -5568,8 +5799,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="38" t="s">
-        <v>256</v>
+      <c r="A31" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -5582,11 +5813,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>262</v>
+      <c r="A32" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="C32" s="9">
         <v>7</v>
@@ -5597,10 +5828,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="C33" s="1">
         <v>25</v>
@@ -5613,8 +5844,8 @@
       <c r="A34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>263</v>
+      <c r="B34" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="C34" s="9">
         <v>10</v>
@@ -5627,8 +5858,8 @@
       <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>264</v>
+      <c r="B35" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="C35" s="9">
         <v>0.2</v>
@@ -5638,16 +5869,26 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="9"/>
@@ -5657,7 +5898,7 @@
       <c r="A40" s="11"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -5685,53 +5926,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
         <v>196</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B5">
@@ -5749,8 +5990,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
-        <v>194</v>
+      <c r="A6" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -5857,8 +6098,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28" t="s">
-        <v>212</v>
+      <c r="A12" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="E12" t="e">
         <f t="shared" si="0"/>
@@ -5866,8 +6107,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29" t="s">
-        <v>214</v>
+      <c r="A13" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -5884,8 +6125,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29" t="s">
-        <v>222</v>
+      <c r="A14" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5901,12 +6142,12 @@
         <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29" t="s">
-        <v>224</v>
+      <c r="A15" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -5922,12 +6163,12 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="29" t="s">
-        <v>223</v>
+      <c r="A16" s="27" t="s">
+        <v>219</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -5943,12 +6184,12 @@
         <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29" t="s">
-        <v>220</v>
+      <c r="A17" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5964,12 +6205,12 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29" t="s">
-        <v>225</v>
+      <c r="A18" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5985,12 +6226,12 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
-        <v>226</v>
+      <c r="A19" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6006,7 +6247,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6027,12 +6268,12 @@
         <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29" t="s">
-        <v>231</v>
+      <c r="A21" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -6048,12 +6289,12 @@
         <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29" t="s">
-        <v>232</v>
+      <c r="A22" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6068,8 +6309,8 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>234</v>
+      <c r="G22" s="30" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6077,8 +6318,8 @@
       <c r="D23" s="9"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="28" t="s">
-        <v>213</v>
+      <c r="A25" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="E25" t="e">
         <f t="shared" si="0"/>
@@ -6086,8 +6327,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="28" t="s">
-        <v>219</v>
+      <c r="A26" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6095,7 +6336,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>3000</v>
       </c>
       <c r="E26">
@@ -6104,8 +6345,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29" t="s">
-        <v>215</v>
+      <c r="A27" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -6122,8 +6363,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29" t="s">
-        <v>217</v>
+      <c r="A28" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -6140,8 +6381,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
-        <v>216</v>
+      <c r="A29" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -6158,8 +6399,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26" t="s">
-        <v>227</v>
+      <c r="A30" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6175,12 +6416,12 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30" t="s">
-        <v>230</v>
+      <c r="A31" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -6188,7 +6429,7 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <v>40</v>
       </c>
       <c r="E31">
@@ -6197,8 +6438,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30" t="s">
-        <v>213</v>
+      <c r="A32" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="E32" t="e">
         <f t="shared" si="1"/>
@@ -6206,8 +6447,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="31" t="s">
-        <v>228</v>
+      <c r="A33" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6215,7 +6456,7 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="25">
         <v>5000</v>
       </c>
       <c r="E33">
@@ -6225,7 +6466,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6233,7 +6474,7 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="25">
         <v>7500</v>
       </c>
       <c r="E34">

--- a/.workspace/shop/shoplist.xlsx
+++ b/.workspace/shop/shoplist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="484" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shop head" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="295">
   <si>
     <t>#ignore rows that start with a '#'</t>
   </si>
@@ -2339,8 +2339,97 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>inecraft:cobble_stone</t>
-    </r>
+      <t>inecraft:cobblestone</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:wool</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ell</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inecraft:redstone</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uy</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectred-core:resource_item:103</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2561,7 +2650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2619,65 +2708,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -2687,6 +2776,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3093,10 +3185,10 @@
       <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>241</v>
       </c>
       <c r="E11" s="12"/>
@@ -3110,7 +3202,7 @@
       </c>
       <c r="C13" s="3">
         <f ca="1">TODAY()</f>
-        <v>43836</v>
+        <v>43844</v>
       </c>
     </row>
   </sheetData>
@@ -3124,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3171,10 +3263,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C5" s="9">
@@ -3185,10 +3277,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>273</v>
       </c>
       <c r="C6" s="9">
@@ -3199,10 +3291,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>286</v>
       </c>
       <c r="C7" s="9">
@@ -3213,7 +3305,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>287</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -3274,10 +3366,10 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C14" s="9">
@@ -3288,10 +3380,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="9">
@@ -3400,10 +3492,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>276</v>
       </c>
       <c r="C23" s="1">
@@ -3498,73 +3590,73 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
@@ -4776,7 +4868,7 @@
       <c r="B165" s="18"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="43" t="s">
+      <c r="A166" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B166" s="18"/>
@@ -5163,7 +5255,7 @@
       <c r="A194" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="38" t="s">
         <v>261</v>
       </c>
       <c r="C194" s="9">
@@ -5177,7 +5269,7 @@
       <c r="A195" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B195" s="39" t="s">
+      <c r="B195" s="38" t="s">
         <v>262</v>
       </c>
       <c r="C195" s="9">
@@ -5188,10 +5280,10 @@
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="42" t="s">
+      <c r="A196" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B196" s="42" t="s">
+      <c r="B196" s="41" t="s">
         <v>278</v>
       </c>
       <c r="C196" s="9">
@@ -5202,10 +5294,10 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="42" t="s">
+      <c r="A197" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B197" s="42" t="s">
+      <c r="B197" s="41" t="s">
         <v>279</v>
       </c>
       <c r="C197" s="9">
@@ -5225,7 +5317,7 @@
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B200" s="13" t="s">
@@ -5239,7 +5331,7 @@
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="32" t="s">
+      <c r="A201" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B201" s="13" t="s">
@@ -5253,8 +5345,8 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="32" t="s">
-        <v>234</v>
+      <c r="A202" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>149</v>
@@ -5267,7 +5359,7 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="32" t="s">
+      <c r="A203" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B203" s="15" t="s">
@@ -5281,7 +5373,7 @@
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="32" t="s">
+      <c r="A204" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B204" s="15" t="s">
@@ -5295,7 +5387,7 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="32" t="s">
+      <c r="A205" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B205" s="15" t="s">
@@ -5309,7 +5401,7 @@
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="32" t="s">
+      <c r="A206" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B206" s="15" t="s">
@@ -5323,7 +5415,7 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B207" s="15" t="s">
@@ -5337,10 +5429,10 @@
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="32" t="s">
+      <c r="A208" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B208" s="43" t="s">
+      <c r="B208" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C208" s="9">
@@ -5351,7 +5443,7 @@
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="32" t="s">
+      <c r="A209" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B209" s="14" t="s">
@@ -5365,10 +5457,10 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="22" t="s">
         <v>229</v>
       </c>
       <c r="C210" s="9">
@@ -5394,6 +5486,34 @@
         <v>32768</v>
       </c>
       <c r="D213" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B214" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C214" s="9">
+        <v>5</v>
+      </c>
+      <c r="D214" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B215" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C215" s="9">
+        <v>10</v>
+      </c>
+      <c r="D215" s="9">
         <v>5</v>
       </c>
     </row>
@@ -5411,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5458,10 +5578,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="9">
@@ -5472,10 +5592,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>273</v>
       </c>
       <c r="C5" s="9">
@@ -5486,10 +5606,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>286</v>
       </c>
       <c r="C6" s="9">
@@ -5500,7 +5620,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>231</v>
       </c>
       <c r="B7" s="44" t="s">
@@ -5514,15 +5634,15 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>244</v>
       </c>
       <c r="C10" s="1">
@@ -5533,10 +5653,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>246</v>
       </c>
       <c r="C11" s="1">
@@ -5547,10 +5667,10 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C12" s="1">
@@ -5561,10 +5681,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C13" s="1">
@@ -5575,10 +5695,10 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C14" s="1">
@@ -5589,10 +5709,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>263</v>
       </c>
       <c r="C15" s="1">
@@ -5603,10 +5723,10 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>253</v>
       </c>
       <c r="C16" s="1">
@@ -5617,10 +5737,10 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>254</v>
       </c>
       <c r="C17" s="1">
@@ -5631,10 +5751,10 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C18" s="1">
@@ -5645,10 +5765,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>266</v>
       </c>
       <c r="C19" s="1">
@@ -5659,10 +5779,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>267</v>
       </c>
       <c r="C20" s="1">
@@ -5673,10 +5793,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>268</v>
       </c>
       <c r="C21" s="1">
@@ -5687,10 +5807,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>269</v>
       </c>
       <c r="C22" s="1">
@@ -5701,10 +5821,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>270</v>
       </c>
       <c r="C23" s="1">
@@ -5715,10 +5835,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="1">
@@ -5735,7 +5855,7 @@
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B26" s="6"/>
@@ -5743,10 +5863,10 @@
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="9">
@@ -5757,10 +5877,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="9">
@@ -5771,7 +5891,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -5785,7 +5905,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -5799,7 +5919,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5813,10 +5933,10 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>258</v>
       </c>
       <c r="C32" s="9">
@@ -5844,7 +5964,7 @@
       <c r="A34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C34" s="9">
@@ -5858,7 +5978,7 @@
       <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C35" s="9">
@@ -5869,10 +5989,10 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>276</v>
       </c>
       <c r="C36" s="1">
@@ -5883,8 +6003,18 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="16"/>
@@ -5898,7 +6028,7 @@
       <c r="A40" s="11"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="21"/>
+      <c r="B42" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -5911,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5972,7 +6102,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B5">
@@ -5990,7 +6120,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B6">
@@ -6098,16 +6228,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="E12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>210</v>
       </c>
       <c r="B13">
@@ -6125,7 +6251,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B14">
@@ -6146,7 +6272,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>220</v>
       </c>
       <c r="B15">
@@ -6167,7 +6293,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>219</v>
       </c>
       <c r="B16">
@@ -6188,7 +6314,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B17">
@@ -6209,7 +6335,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>221</v>
       </c>
       <c r="B18">
@@ -6230,7 +6356,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>222</v>
       </c>
       <c r="B19">
@@ -6272,7 +6398,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B21">
@@ -6293,7 +6419,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>228</v>
       </c>
       <c r="B22">
@@ -6309,7 +6435,7 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6318,16 +6444,12 @@
       <c r="D23" s="9"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>215</v>
       </c>
       <c r="B26">
@@ -6336,7 +6458,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>3000</v>
       </c>
       <c r="E26">
@@ -6345,7 +6467,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>211</v>
       </c>
       <c r="B27">
@@ -6363,7 +6485,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>213</v>
       </c>
       <c r="B28">
@@ -6381,7 +6503,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>212</v>
       </c>
       <c r="B29">
@@ -6399,7 +6521,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>223</v>
       </c>
       <c r="B30">
@@ -6420,7 +6542,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>226</v>
       </c>
       <c r="B31">
@@ -6429,7 +6551,7 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>40</v>
       </c>
       <c r="E31">
@@ -6438,16 +6560,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B33">
@@ -6456,7 +6574,7 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>5000</v>
       </c>
       <c r="E33">
@@ -6474,7 +6592,7 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>7500</v>
       </c>
       <c r="E34">
